--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>KW 9</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Recherche</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Arbeitspaket 2</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Vergleich zu ähnlichen Konzepten</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Arbeitspaket 4</t>
@@ -727,7 +727,9 @@
         <v>19</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="5"/>
@@ -747,10 +749,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -773,15 +775,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5"/>
@@ -949,7 +951,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -978,7 +980,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1053,7 +1055,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>KW 9</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Vergleich zu ähnlichen Konzepten</t>
+  </si>
+  <si>
+    <t>Information gesammelt</t>
   </si>
   <si>
     <t>Arbeitspaket 4</t>
@@ -141,13 +144,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,7 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -182,6 +191,13 @@
     </fill>
   </fills>
   <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -276,21 +292,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -298,38 +307,47 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,445 +657,447 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25" customFormat="1" s="10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="12" t="s">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>KW 9</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
+  </si>
+  <si>
+    <t>Marktrecherche abgeschlossen</t>
   </si>
   <si>
     <t>Arbeitspaket 6</t>
@@ -159,6 +162,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF5f5f5f"/>
       <name val="Helvetica Neue Medium"/>
@@ -167,12 +176,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -301,47 +304,47 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -657,11 +660,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
@@ -679,7 +682,7 @@
     <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2" t="s">
@@ -694,7 +697,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -741,271 +744,273 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A12" s="3"/>
@@ -1014,8 +1019,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1031,14 +1036,14 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1053,14 +1058,14 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1078,26 +1083,26 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>KW 9</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Aufbau Hardware</t>
+  </si>
+  <si>
+    <t>Grundsätzliche Auseinandersetzung mit ROS abgeschlossen</t>
   </si>
   <si>
     <t>Programmierung Fahrfunktion</t>
@@ -664,7 +667,7 @@
     <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
@@ -887,7 +890,9 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -909,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -932,10 +937,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -958,10 +963,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -986,10 +991,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1020,7 +1025,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1088,7 +1093,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>KW 9</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
+  </si>
+  <si>
+    <t>Diskussion über mögliche Hardware</t>
   </si>
   <si>
     <t>Marktrecherche abgeschlossen</t>
@@ -150,19 +153,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -302,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,41 +307,35 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -663,31 +654,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,303 +738,305 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1065,7 +1058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1087,27 +1080,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+  <si>
+    <t>KW8</t>
+  </si>
   <si>
     <t>KW 9</t>
   </si>
@@ -76,30 +79,42 @@
     <t>Recherche</t>
   </si>
   <si>
+    <t>Vergenauerung Zielsetzung</t>
+  </si>
+  <si>
+    <t>Hard und Software</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 2</t>
+  </si>
+  <si>
+    <t>Anforderungen des Roboters festlegen</t>
+  </si>
+  <si>
+    <t>Aufgeschrieben</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 3</t>
+  </si>
+  <si>
+    <t>Vergleich zu ähnlichen Konzepten</t>
+  </si>
+  <si>
+    <t>Information gesammelt</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Arbeitspaket 2</t>
-  </si>
-  <si>
-    <t>Anforderungen des Roboters festlegen</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 3</t>
-  </si>
-  <si>
-    <t>Vergleich zu ähnlichen Konzepten</t>
-  </si>
-  <si>
-    <t>Information gesammelt</t>
-  </si>
-  <si>
     <t>Arbeitspaket 4</t>
   </si>
   <si>
     <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
   </si>
   <si>
+    <t>Optionenliste</t>
+  </si>
+  <si>
     <t>Diskussion über mögliche Hardware</t>
   </si>
   <si>
@@ -112,13 +127,17 @@
     <t>Strukturfestlegung Software</t>
   </si>
   <si>
+    <t>Grundsätzliche Auseinandersetzung
+grundsätzliche Auseinandersetzung</t>
+  </si>
+  <si>
     <t>Arbeitspaket 7</t>
   </si>
   <si>
     <t>Aufbau Hardware</t>
   </si>
   <si>
-    <t>Grundsätzliche Auseinandersetzung mit ROS abgeschlossen</t>
+    <t/>
   </si>
   <si>
     <t>Programmierung Fahrfunktion</t>
@@ -299,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,15 +326,18 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -330,6 +352,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -648,38 +673,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="39.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -733,22 +759,27 @@
       <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -761,20 +792,23 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -787,24 +821,25 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -817,24 +852,27 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -847,23 +885,28 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -873,27 +916,30 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -901,100 +947,104 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1002,25 +1052,26 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1033,11 +1084,12 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1055,11 +1107,12 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1077,6 +1130,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
@@ -1085,10 +1139,10 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1101,6 +1155,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+  <si>
+    <t>KW8</t>
+  </si>
   <si>
     <t>KW 9</t>
   </si>
@@ -76,30 +79,45 @@
     <t>Recherche</t>
   </si>
   <si>
+    <t>Vergenauerung Zielsetzung</t>
+  </si>
+  <si>
+    <t>Hard und Software</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 2</t>
+  </si>
+  <si>
+    <t>Anforderungen des Roboters festlegen</t>
+  </si>
+  <si>
+    <t>Aufgeschrieben</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 3</t>
+  </si>
+  <si>
+    <t>Vergleich zu ähnlichen Konzepten</t>
+  </si>
+  <si>
+    <t>Information gesammelt</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Arbeitspaket 2</t>
-  </si>
-  <si>
-    <t>Anforderungen des Roboters festlegen</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 3</t>
-  </si>
-  <si>
-    <t>Vergleich zu ähnlichen Konzepten</t>
-  </si>
-  <si>
-    <t>Information gesammelt</t>
-  </si>
-  <si>
     <t>Arbeitspaket 4</t>
   </si>
   <si>
     <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
   </si>
   <si>
+    <t>Optionenliste</t>
+  </si>
+  <si>
+    <t>Diskussion über mögliche Hardware</t>
+  </si>
+  <si>
     <t>Marktrecherche abgeschlossen</t>
   </si>
   <si>
@@ -109,13 +127,17 @@
     <t>Strukturfestlegung Software</t>
   </si>
   <si>
+    <t>Grundsätzliche Auseinandersetzung
+grundsätzliche Auseinandersetzung</t>
+  </si>
+  <si>
     <t>Arbeitspaket 7</t>
   </si>
   <si>
     <t>Aufbau Hardware</t>
   </si>
   <si>
-    <t>Grundsätzliche Auseinandersetzung mit ROS abgeschlossen</t>
+    <t/>
   </si>
   <si>
     <t>Programmierung Fahrfunktion</t>
@@ -150,19 +172,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -310,41 +326,41 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -657,20 +673,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="39.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
@@ -683,12 +699,13 @@
     <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -742,309 +759,337 @@
       <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1062,11 +1107,12 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1084,30 +1130,32 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>KW8</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Optionenliste</t>
   </si>
   <si>
-    <t>Diskussion über mögliche Hardware</t>
-  </si>
-  <si>
-    <t>Marktrecherche abgeschlossen</t>
+    <t>Diskussion über mögliche Hardware, Marktrecherche abgeschlossen</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Arbeitspaket 6</t>
@@ -127,8 +127,10 @@
     <t>Strukturfestlegung Software</t>
   </si>
   <si>
-    <t>Grundsätzliche Auseinandersetzung
-grundsätzliche Auseinandersetzung</t>
+    <t>Grundsätzliche Auseinandersetzung</t>
+  </si>
+  <si>
+    <t>Programmierumgebung SetUp</t>
   </si>
   <si>
     <t>Arbeitspaket 7</t>
@@ -137,9 +139,6 @@
     <t>Aufbau Hardware</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Programmierung Fahrfunktion</t>
   </si>
   <si>
@@ -159,6 +158,15 @@
   </si>
   <si>
     <t>Abschlussdokumentation</t>
+  </si>
+  <si>
+    <t>Finale Anforderungen aktualisieren</t>
+  </si>
+  <si>
+    <t>Arbeitspaket  11</t>
+  </si>
+  <si>
+    <t>RFID-Chip erkennen</t>
   </si>
   <si>
     <t>Meilenstein 1: Hardware definiert</t>
@@ -172,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +191,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,36 +340,39 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -364,6 +381,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -679,27 +699,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="39.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -774,31 +794,31 @@
       <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -806,22 +826,22 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
@@ -831,28 +851,28 @@
         <v>27</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
@@ -862,215 +882,221 @@
         <v>31</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="H5" s="11"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="13" t="s">
-        <v>48</v>
+      <c r="H12" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1136,26 +1162,26 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>KW8</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Aufgeschrieben</t>
   </si>
   <si>
+    <t>Finale Anforderungen aktualisieren</t>
+  </si>
+  <si>
     <t>Arbeitspaket 3</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>Abschlussdokumentation</t>
-  </si>
-  <si>
-    <t>Finale Anforderungen aktualisieren</t>
   </si>
   <si>
     <t>Arbeitspaket  11</t>
@@ -826,7 +826,9 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="7"/>
@@ -845,18 +847,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -876,20 +878,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
@@ -909,20 +911,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
@@ -942,14 +944,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -971,10 +973,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -998,10 +1000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1025,10 +1027,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -1044,7 +1046,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1054,16 +1056,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
+      <c r="F11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -1076,7 +1078,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>KW8</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Aufgeschrieben</t>
   </si>
   <si>
-    <t>Finale Anforderungen aktualisieren</t>
+    <t/>
   </si>
   <si>
     <t>Arbeitspaket 3</t>
@@ -121,9 +121,6 @@
     <t>Diskussion über mögliche Hardware, Marktrecherche abgeschlossen</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Arbeitspaket 6</t>
   </si>
   <si>
@@ -142,34 +139,43 @@
     <t>Aufbau Hardware</t>
   </si>
   <si>
+    <t>Arbeitspaket 8</t>
+  </si>
+  <si>
     <t>Programmierung Fahrfunktion</t>
   </si>
   <si>
-    <t>Arbeitspaket 8</t>
+    <t>Arbeitspaket 9</t>
   </si>
   <si>
     <t>Programmierung Tracking</t>
   </si>
   <si>
-    <t>Arbeitspaket 9</t>
+    <t>Arbeitspaket 10</t>
   </si>
   <si>
     <t>Systemtest</t>
   </si>
   <si>
-    <t>Arbeitspaket 10</t>
-  </si>
-  <si>
     <t>Abschlussdokumentation</t>
   </si>
   <si>
-    <t>Arbeitspaket  11</t>
+    <t>Arbeitspaket  12</t>
   </si>
   <si>
     <t>RFID-Chip erkennen</t>
   </si>
   <si>
+    <t>Arbeitspaket 13</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
     <t>Meilenstein 1: Hardware definiert</t>
+  </si>
+  <si>
+    <t>Simulation fertiggestellt</t>
   </si>
   <si>
     <t>--&gt; Bestellung wird ausgelöst</t>
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,10 +379,13 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -699,27 +708,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -826,7 +835,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="7"/>
@@ -891,7 +900,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
@@ -911,20 +920,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
       <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
@@ -944,10 +953,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
@@ -973,7 +982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>42</v>
@@ -1056,16 +1065,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -1087,18 +1096,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="14" t="s">
-        <v>51</v>
+      <c r="H12" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1115,15 +1126,23 @@
       <c r="U12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1142,11 +1161,15 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1165,11 +1188,13 @@
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="15" t="s">
-        <v>52</v>
+      <c r="H15" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>KW8</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Aufgeschrieben</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Arbeitspaket 3</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Programmierung Fahrfunktion</t>
+  </si>
+  <si>
+    <t>PAP</t>
   </si>
   <si>
     <t>Arbeitspaket 9</t>
@@ -201,15 +201,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF5f5f5f"/>
+      <name val="Helvetica Neue Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF5f5f5f"/>
-      <name val="Helvetica Neue Medium"/>
       <family val="2"/>
     </font>
     <font>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,14 +346,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -364,28 +361,22 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -708,33 +699,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -796,321 +787,315 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="26.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1132,16 +1117,14 @@
       <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1159,7 +1142,7 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>52</v>
@@ -1186,29 +1169,27 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +204,6 @@
       <sz val="10"/>
       <color rgb="FF5f5f5f"/>
       <name val="Helvetica Neue Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -338,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,10 +343,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -364,7 +355,7 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -381,9 +372,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -699,27 +687,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -790,58 +778,58 @@
       <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
@@ -850,29 +838,29 @@
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
@@ -881,207 +869,207 @@
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
@@ -1095,7 +1083,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1169,27 +1157,27 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>KW8</t>
   </si>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,7 +367,13 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -681,33 +687,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -955,22 +961,18 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -986,10 +988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
@@ -1015,10 +1017,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
@@ -1026,16 +1028,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1047,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5"/>
@@ -1062,21 +1064,21 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1092,7 +1094,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1100,10 +1104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1111,9 +1115,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1128,18 +1130,20 @@
       <c r="U13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1154,30 +1158,57 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>KW8</t>
   </si>
@@ -31,7 +34,7 @@
     <t>KW 12; 20.3-26.3</t>
   </si>
   <si>
-    <t>KW 13</t>
+    <t>KW 13 27.3-2.4</t>
   </si>
   <si>
     <t>KW 14</t>
@@ -157,19 +160,25 @@
     <t>WiFi - SetUp</t>
   </si>
   <si>
+    <t>TB3 Bringup</t>
+  </si>
+  <si>
     <t>Arbeitspaket 8.1</t>
   </si>
   <si>
     <t>Programmierung Fahrfunktion</t>
   </si>
   <si>
-    <t>PAP</t>
+    <t>PAP (Entwurf)</t>
   </si>
   <si>
     <t>Arbeitspaket 8.2</t>
   </si>
   <si>
     <t>Programmierung Tracking</t>
+  </si>
+  <si>
+    <t>SLAM Node</t>
   </si>
   <si>
     <t>Arbeitspaket 9</t>
@@ -210,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -233,12 +242,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -362,8 +365,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -391,14 +397,20 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,557 +720,565 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,185 +14,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+  <si>
+    <t>KW8</t>
+  </si>
+  <si>
+    <t>KW 9</t>
+  </si>
+  <si>
+    <t>KW 10</t>
+  </si>
+  <si>
+    <t>KW 11; 13.3-19.3</t>
+  </si>
+  <si>
+    <t>KW 12; 20.3-26.3</t>
+  </si>
+  <si>
+    <t>KW 13 27.3-2.4</t>
+  </si>
+  <si>
+    <t>KW 14</t>
+  </si>
+  <si>
+    <t>KW 15</t>
+  </si>
+  <si>
+    <t>KW 16</t>
+  </si>
+  <si>
+    <t>KW 17</t>
+  </si>
+  <si>
+    <t>KW 18</t>
+  </si>
+  <si>
+    <t>KW 19</t>
+  </si>
+  <si>
+    <t>KW 20</t>
+  </si>
+  <si>
+    <t>KW 21</t>
+  </si>
+  <si>
+    <t>KW 22</t>
+  </si>
+  <si>
+    <t>KW 23</t>
+  </si>
+  <si>
+    <t>Kommentare</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 1</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Vergenauerung Zielsetzung</t>
+  </si>
+  <si>
+    <t>Hard und Software</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 2</t>
+  </si>
+  <si>
+    <t>Anforderungen des Roboters festlegen</t>
+  </si>
+  <si>
+    <t>Aufgeschrieben</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 3</t>
+  </si>
+  <si>
+    <t>Vergleich zu ähnlichen Konzepten</t>
+  </si>
+  <si>
+    <t>Information gesammelt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
+  </si>
+  <si>
+    <t>Optionenliste</t>
+  </si>
+  <si>
+    <t>Diskussion über mögliche Hardware, Marktrecherche abgeschlossen</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 6</t>
+  </si>
+  <si>
+    <t>Strukturfestlegung Software</t>
+  </si>
+  <si>
+    <t>Grundsätzliche Auseinandersetzung</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 7</t>
+  </si>
+  <si>
+    <t>Aufbau Hardware</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmierung </t>
+  </si>
+  <si>
+    <t>Abtpk. 8.01 SetUp</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 8.01</t>
+  </si>
+  <si>
+    <t>Programmierumgebung SetUp</t>
+  </si>
+  <si>
+    <t>ROS auf einem PC installieren</t>
+  </si>
+  <si>
+    <t>*Kompatibilitätsproblem festgestellt*</t>
+  </si>
+  <si>
+    <t>WiFi - SetUp</t>
+  </si>
+  <si>
+    <t>TB3 Bringup</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t>BugTest</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 8.1</t>
+  </si>
+  <si>
+    <t>Programmierung Fahrfunktion</t>
+  </si>
+  <si>
+    <t>PAP (Entwurf)</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 8.2</t>
+  </si>
+  <si>
+    <t>Programmierung Tracking</t>
+  </si>
+  <si>
+    <t>SLAM Anfang, Topic Monitor</t>
+  </si>
+  <si>
+    <t>SLAM Map</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 9</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 10</t>
+  </si>
+  <si>
+    <t>Abschlussdokumentation</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>KW8</t>
-  </si>
-  <si>
-    <t>KW 9</t>
-  </si>
-  <si>
-    <t>KW 10</t>
-  </si>
-  <si>
-    <t>KW 11; 13.3-19.3</t>
-  </si>
-  <si>
-    <t>KW 12; 20.3-26.3</t>
-  </si>
-  <si>
-    <t>KW 13 27.3-2.4</t>
-  </si>
-  <si>
-    <t>KW 14</t>
-  </si>
-  <si>
-    <t>KW 15</t>
-  </si>
-  <si>
-    <t>KW 16</t>
-  </si>
-  <si>
-    <t>KW 17</t>
-  </si>
-  <si>
-    <t>KW 18</t>
-  </si>
-  <si>
-    <t>KW 19</t>
-  </si>
-  <si>
-    <t>KW 20</t>
-  </si>
-  <si>
-    <t>KW 21</t>
-  </si>
-  <si>
-    <t>KW 22</t>
-  </si>
-  <si>
-    <t>KW 23</t>
-  </si>
-  <si>
-    <t>KW 24</t>
-  </si>
-  <si>
-    <t>KW 25</t>
-  </si>
-  <si>
-    <t>KW 26</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 1</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>Vergenauerung Zielsetzung</t>
-  </si>
-  <si>
-    <t>Hard und Software</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 2</t>
-  </si>
-  <si>
-    <t>Anforderungen des Roboters festlegen</t>
-  </si>
-  <si>
-    <t>Aufgeschrieben</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 3</t>
-  </si>
-  <si>
-    <t>Vergleich zu ähnlichen Konzepten</t>
-  </si>
-  <si>
-    <t>Information gesammelt</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grundsätzlich  Hardwareplanung abgeschlossen </t>
-  </si>
-  <si>
-    <t>Optionenliste</t>
-  </si>
-  <si>
-    <t>Diskussion über mögliche Hardware, Marktrecherche abgeschlossen</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 6</t>
-  </si>
-  <si>
-    <t>Strukturfestlegung Software</t>
-  </si>
-  <si>
-    <t>Grundsätzliche Auseinandersetzung</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 7</t>
-  </si>
-  <si>
-    <t>Aufbau Hardware</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmierung </t>
-  </si>
-  <si>
-    <t>Abtpk. 8.01 SetUp</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 8.01</t>
-  </si>
-  <si>
-    <t>Programmierumgebung SetUp</t>
-  </si>
-  <si>
-    <t>ROS auf einem PC installieren</t>
-  </si>
-  <si>
-    <t>*Kompatibilitätsproblem festgestellt*</t>
-  </si>
-  <si>
-    <t>WiFi - SetUp</t>
-  </si>
-  <si>
-    <t>TB3 Bringup</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 8.1</t>
-  </si>
-  <si>
-    <t>Programmierung Fahrfunktion</t>
-  </si>
-  <si>
-    <t>PAP (Entwurf)</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 8.2</t>
-  </si>
-  <si>
-    <t>Programmierung Tracking</t>
-  </si>
-  <si>
-    <t>SLAM Node</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 9</t>
-  </si>
-  <si>
-    <t>Systemtest</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 10</t>
-  </si>
-  <si>
-    <t>Abschlussdokumentation</t>
-  </si>
-  <si>
     <t>Arbeitspaket 11</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>--&gt; Bestellung wird ausgelöst</t>
+  </si>
+  <si>
+    <t>Projektabgabe</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +251,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -365,11 +380,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -397,13 +409,13 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -714,571 +726,539 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>KW8</t>
   </si>
@@ -154,6 +154,9 @@
     <t>TB3 Bringup</t>
   </si>
   <si>
+    <t>Package fertig gestellt</t>
+  </si>
+  <si>
     <t>Tuning</t>
   </si>
   <si>
@@ -172,13 +175,19 @@
     <t>Navigation</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Feststellen des Startpunkts</t>
+  </si>
+  <si>
     <t>Arbeitspaket 8.2</t>
   </si>
   <si>
     <t>Programmierung Tracking</t>
   </si>
   <si>
-    <t>SLAM Anfang, Topic Monitor</t>
+    <t>SLAM Anfang, Topic Monitor(*)</t>
   </si>
   <si>
     <t>SLAM Map</t>
@@ -194,9 +203,6 @@
   </si>
   <si>
     <t>Abschlussdokumentation</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Arbeitspaket 11</t>
@@ -228,7 +234,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +257,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -409,13 +409,10 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -732,25 +729,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -962,7 +959,7 @@
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -987,7 +984,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>39</v>
@@ -1009,7 +1006,7 @@
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1"/>
@@ -1032,39 +1029,45 @@
       <c r="L9" s="4"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="P9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1073,25 +1076,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1104,14 +1107,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -1131,10 +1134,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1150,9 +1153,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1160,10 +1161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1185,10 +1186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1216,13 +1217,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1241,7 +1242,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1256,7 +1257,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S17" s="4"/>
     </row>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>KW8</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Aufbau Hardware</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Arbeitspaket 8</t>
@@ -380,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -409,13 +406,7 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -732,25 +723,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="57.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="57.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -974,25 +965,23 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1002,37 +991,37 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1040,24 +1029,18 @@
       <c r="L9" s="4"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
@@ -1066,18 +1049,16 @@
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1087,10 +1068,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
@@ -1098,14 +1079,14 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1118,10 +1099,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
@@ -1145,10 +1126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1172,10 +1153,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1197,10 +1178,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1228,13 +1209,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1253,7 +1234,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1268,7 +1249,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S17" s="4"/>
     </row>

--- a/Zeitplanung/Zeitplan V2.xlsx
+++ b/Zeitplanung/Zeitplan V2.xlsx
@@ -34,10 +34,10 @@
     <t>KW 13 27.3-2.4</t>
   </si>
   <si>
-    <t>KW 14</t>
-  </si>
-  <si>
-    <t>KW 15</t>
+    <t>KW 14 3.4-9.4</t>
+  </si>
+  <si>
+    <t>KW 15 10.4-16.4</t>
   </si>
   <si>
     <t>KW 16</t>
@@ -160,7 +160,7 @@
     <t>WiFi - SetUp</t>
   </si>
   <si>
-    <t>TB3 Bringup</t>
+    <t>TB3 Bringup[+]</t>
   </si>
   <si>
     <t>Arbeitspaket 8.1</t>
@@ -184,7 +184,7 @@
     <t>Programmierung Tracking</t>
   </si>
   <si>
-    <t>SLAM Anfang, Topic Monitor(*)</t>
+    <t>SLAM Anfang[-], Topic Monitor(*)</t>
   </si>
   <si>
     <t>SLAM Map</t>
@@ -217,7 +217,7 @@
     <t>Meilenstein 1: Hardware definiert</t>
   </si>
   <si>
-    <t>Simulation fertiggestellt</t>
+    <t>Simulation fertiggestellt[~]</t>
   </si>
   <si>
     <t>--&gt; Bestellung wird ausgelöst</t>
@@ -730,9 +730,9 @@
     <col min="5" max="5" style="12" width="57.71928571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="11" width="49.86214285714286" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="11" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="31.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="25.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="11" width="12.862142857142858" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="11" width="27.862142857142857" customWidth="1" bestFit="1"/>
